--- a/data/sleeve/sleeve_info.xlsx
+++ b/data/sleeve/sleeve_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\sleeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\sleeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB6143-B69F-4C27-8BB4-9B4F97EC8406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F229D-BC6A-4662-9568-B94C431DA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+      <selection activeCell="Q3" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -590,11 +590,11 @@
     <col min="14" max="14" width="6.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="7" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="6.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
@@ -780,58 +780,58 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>947</v>
+        <v>904</v>
       </c>
       <c r="J4" s="5">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="K4" s="5">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M4" s="5">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N4" s="5">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="O4" s="5">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="P4" s="5">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S4" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="V4" s="5">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W4" s="5">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="X4" s="5">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Y4" s="5">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="5">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/sleeve/sleeve_info.xlsx
+++ b/data/sleeve/sleeve_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\sleeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\sleeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F229D-BC6A-4662-9568-B94C431DA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59797CAF-61E1-402B-AC42-924A354043E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q1:Q1048576"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
     <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
@@ -590,7 +590,7 @@
     <col min="14" max="14" width="6.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="7" style="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
@@ -780,58 +780,58 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="J4" s="5">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="K4" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4" s="5">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="M4" s="5">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="N4" s="5">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O4" s="5">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="P4" s="5">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="V4" s="5">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="W4" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X4" s="5">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="5">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="5">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/sleeve/sleeve_info.xlsx
+++ b/data/sleeve/sleeve_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\sleeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\sleeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59797CAF-61E1-402B-AC42-924A354043E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE327C-FBFE-41E9-97EB-47DDF7A6B589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
     <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
@@ -593,7 +593,7 @@
     <col min="17" max="17" width="7" style="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="7.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="6.6640625" style="1" customWidth="1" outlineLevel="1"/>
@@ -780,58 +780,58 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>897</v>
+        <v>701</v>
       </c>
       <c r="J4" s="5">
-        <v>873</v>
+        <v>652</v>
       </c>
       <c r="K4" s="5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="L4" s="5">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="M4" s="5">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="N4" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O4" s="5">
-        <v>647</v>
+        <v>431</v>
       </c>
       <c r="P4" s="5">
-        <v>647</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="S4" s="5">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="V4" s="5">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="W4" s="5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="X4" s="5">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="5">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
